--- a/Data/OSCO - POS+INV- March 2020.xlsx
+++ b/Data/OSCO - POS+INV- March 2020.xlsx
@@ -1,31 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\논병아리\External Report\SiTime\POS_INV_Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffreyGeorge\PycharmProjects\SiTimeFileAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F0E513-9E1A-4A52-AAF8-13E324F0AAA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C861AAA7-FBB3-4B9D-A843-6CAF23696AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17480" yWindow="-17570" windowWidth="17280" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Inventory" sheetId="1" r:id="rId1"/>
-    <sheet name="POS" sheetId="2" r:id="rId2"/>
+    <sheet name="POS" sheetId="2" r:id="rId1"/>
+    <sheet name="Inventory" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inventory!$A$4:$I$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">POS!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Inventory!$A$1:$I$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">POS!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
-  <si>
-    <t>SiTime Inventory Format</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
   <si>
     <t>Distributor</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,9 +73,6 @@
   <si>
     <t>Lot #</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Month</t>
   </si>
   <si>
     <t>Distributor</t>
@@ -280,16 +277,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="0.00000_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="178" formatCode="\$#,##0.000;\-\$#,##0.000"/>
-    <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.00000_ "/>
+    <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="\$#,##0.000;\-\$#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -300,7 +297,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -398,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,7 +419,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,25 +431,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,7 +464,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -787,923 +783,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="27.59765625" customWidth="1"/>
-    <col min="2" max="2" width="24.69921875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" customWidth="1"/>
-    <col min="5" max="5" width="24.59765625" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" customWidth="1"/>
-    <col min="8" max="8" width="17.3984375" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="12">
-        <v>150</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="E5" s="13">
-        <v>43487</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="13">
-        <v>43483</v>
-      </c>
-      <c r="H5" s="12">
-        <v>19017127</v>
-      </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="12">
-        <v>63000</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="E6" s="13">
-        <v>43859</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="13">
-        <v>43857</v>
-      </c>
-      <c r="H6" s="12">
-        <v>20010265</v>
-      </c>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="12">
-        <v>15000</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="E7" s="13">
-        <v>43874</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="13">
-        <v>43872</v>
-      </c>
-      <c r="H7" s="12">
-        <v>20020790</v>
-      </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="12">
-        <v>30000</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="E8" s="13">
-        <v>43852</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="13">
-        <v>43850</v>
-      </c>
-      <c r="H8" s="12">
-        <v>20010009</v>
-      </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="12">
-        <v>9000</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.185</v>
-      </c>
-      <c r="E9" s="13">
-        <v>43895</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="13">
-        <v>43893</v>
-      </c>
-      <c r="H9" s="12">
-        <v>20031561</v>
-      </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="12">
-        <v>250</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.27</v>
-      </c>
-      <c r="E10" s="13">
-        <v>43672</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="13">
-        <v>43669</v>
-      </c>
-      <c r="H10" s="12">
-        <v>19073163</v>
-      </c>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="12">
-        <v>6000</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="13">
-        <v>43773</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="13">
-        <v>43771</v>
-      </c>
-      <c r="H11" s="12">
-        <v>19116862</v>
-      </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D12" s="16">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E12" s="13">
-        <v>43668</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="13">
-        <v>43664</v>
-      </c>
-      <c r="H12" s="12">
-        <v>19072973</v>
-      </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="12">
-        <v>9000</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="E13" s="13">
-        <v>43801</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="13">
-        <v>43797</v>
-      </c>
-      <c r="H13" s="12">
-        <v>19117939</v>
-      </c>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="12">
-        <v>9000</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="E14" s="13">
-        <v>43836</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="13">
-        <v>43832</v>
-      </c>
-      <c r="H14" s="12">
-        <v>20019487</v>
-      </c>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="12">
-        <v>9000</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="E15" s="13">
-        <v>43871</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="13">
-        <v>43868</v>
-      </c>
-      <c r="H15" s="12">
-        <v>20020674</v>
-      </c>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="12">
-        <v>9000</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="E16" s="13">
-        <v>43817</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="13">
-        <v>43815</v>
-      </c>
-      <c r="H16" s="12">
-        <v>19128640</v>
-      </c>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="E17" s="13">
-        <v>43896</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="13">
-        <v>43893</v>
-      </c>
-      <c r="H17" s="12">
-        <v>20031561</v>
-      </c>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="12">
-        <v>15000</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="E18" s="13">
-        <v>43896</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="13">
-        <v>43894</v>
-      </c>
-      <c r="H18" s="12">
-        <v>20031629</v>
-      </c>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="12">
-        <v>18000</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="E19" s="13">
-        <v>43896</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="13">
-        <v>43893</v>
-      </c>
-      <c r="H19" s="12">
-        <v>20031561</v>
-      </c>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="12">
-        <v>9000</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="E20" s="13">
-        <v>43874</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="13">
-        <v>43872</v>
-      </c>
-      <c r="H20" s="12">
-        <v>20020791</v>
-      </c>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="13">
-        <v>43882</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="13">
-        <v>43880</v>
-      </c>
-      <c r="H21" s="12">
-        <v>20021095</v>
-      </c>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="12">
-        <v>6000</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="13">
-        <v>43895</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="13">
-        <v>43893</v>
-      </c>
-      <c r="H22" s="12">
-        <v>20031560</v>
-      </c>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="12">
-        <v>150</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0.19</v>
-      </c>
-      <c r="E23" s="13">
-        <v>43703</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="13">
-        <v>43700</v>
-      </c>
-      <c r="H23" s="12">
-        <v>19084193</v>
-      </c>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1">
-      <c r="A24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="12">
-        <v>250</v>
-      </c>
-      <c r="D24" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="E24" s="13">
-        <v>43887</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="13">
-        <v>43885</v>
-      </c>
-      <c r="H24" s="12">
-        <v>20021232</v>
-      </c>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" ht="21" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="12">
-        <v>250</v>
-      </c>
-      <c r="D25" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="E25" s="13">
-        <v>43917</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="13">
-        <v>43915</v>
-      </c>
-      <c r="H25" s="12">
-        <v>20032708</v>
-      </c>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" ht="21" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="12">
-        <v>3000</v>
-      </c>
-      <c r="D26" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="E26" s="13">
-        <v>43915</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="13">
-        <v>43913</v>
-      </c>
-      <c r="H26" s="12">
-        <v>20032459</v>
-      </c>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="21" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="12">
-        <v>250</v>
-      </c>
-      <c r="D27" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="E27" s="13">
-        <v>43917</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="13">
-        <v>43915</v>
-      </c>
-      <c r="H27" s="12">
-        <v>20032708</v>
-      </c>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" ht="21" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="12">
-        <v>250</v>
-      </c>
-      <c r="D28" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="E28" s="13">
-        <v>43917</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="13">
-        <v>43915</v>
-      </c>
-      <c r="H28" s="12">
-        <v>20032708</v>
-      </c>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" ht="21" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="12">
-        <v>250</v>
-      </c>
-      <c r="D29" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="E29" s="13">
-        <v>43908</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="13">
-        <v>43906</v>
-      </c>
-      <c r="H29" s="12">
-        <v>20032046</v>
-      </c>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D30" s="16">
-        <v>0.44</v>
-      </c>
-      <c r="E30" s="13">
-        <v>43913</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="13">
-        <v>43910</v>
-      </c>
-      <c r="H30" s="12">
-        <v>20032422</v>
-      </c>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" ht="21" customHeight="1">
-      <c r="A31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="12">
-        <v>250</v>
-      </c>
-      <c r="D31" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="E31" s="13">
-        <v>43916</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="13">
-        <v>43914</v>
-      </c>
-      <c r="H31" s="12">
-        <v>20032540</v>
-      </c>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" ht="21" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="12">
-        <v>250</v>
-      </c>
-      <c r="D32" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="E32" s="13">
-        <v>43916</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="13">
-        <v>43914</v>
-      </c>
-      <c r="H32" s="12">
-        <v>20032541</v>
-      </c>
-      <c r="I32" s="12"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A4:I32" xr:uid="{5EE9B89A-A737-4F68-880C-AFCAEEA6E5EF}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.8984375" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.89453125" customWidth="1"/>
+    <col min="5" max="5" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1015625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="E2" s="8">
         <v>9000</v>
@@ -1718,7 +882,7 @@
         <v>0.185</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J2" s="7">
         <v>43914</v>
@@ -1727,10 +891,10 @@
         <v>33096</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N2" s="6">
         <v>20019780</v>
@@ -1739,16 +903,16 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="8">
         <v>9000</v>
@@ -1763,7 +927,7 @@
         <v>0.18</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J3" s="7">
         <v>43914</v>
@@ -1772,10 +936,10 @@
         <v>33096</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N3" s="6">
         <v>20010010</v>
@@ -1784,16 +948,16 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" s="8">
         <v>9000</v>
@@ -1808,7 +972,7 @@
         <v>0.18</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="7">
         <v>43914</v>
@@ -1817,10 +981,10 @@
         <v>33096</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N4" s="6">
         <v>20020791</v>
@@ -1829,16 +993,16 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8">
         <v>250</v>
@@ -1853,7 +1017,7 @@
         <v>0.3</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5" s="7">
         <v>43894</v>
@@ -1862,10 +1026,10 @@
         <v>34762</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N5" s="6">
         <v>20019914</v>
@@ -1874,16 +1038,16 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="8">
         <v>9000</v>
@@ -1898,7 +1062,7 @@
         <v>0.5</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J6" s="7">
         <v>43894</v>
@@ -1907,10 +1071,10 @@
         <v>31032</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N6" s="6">
         <v>20021095</v>
@@ -1919,16 +1083,16 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8">
         <v>3000</v>
@@ -1943,7 +1107,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J7" s="7">
         <v>43894</v>
@@ -1952,10 +1116,10 @@
         <v>30508</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N7" s="6">
         <v>20021094</v>
@@ -1964,16 +1128,16 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E8" s="8">
         <v>250</v>
@@ -1988,7 +1152,7 @@
         <v>0.4</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J8" s="7">
         <v>43906</v>
@@ -1997,10 +1161,10 @@
         <v>35251</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N8" s="6">
         <v>20021232</v>
@@ -2009,16 +1173,16 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8">
         <v>3000</v>
@@ -2033,7 +1197,7 @@
         <v>0.25</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J9" s="7">
         <v>43900</v>
@@ -2042,10 +1206,10 @@
         <v>30789</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N9" s="6">
         <v>20031559</v>
@@ -2056,6 +1220,820 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="27.578125" customWidth="1"/>
+    <col min="2" max="2" width="24.68359375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="20.41796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.1015625" customWidth="1"/>
+    <col min="5" max="5" width="24.578125" customWidth="1"/>
+    <col min="6" max="6" width="17.68359375" customWidth="1"/>
+    <col min="7" max="7" width="14.3125" customWidth="1"/>
+    <col min="8" max="8" width="17.41796875" customWidth="1"/>
+    <col min="9" max="9" width="14.41796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="12">
+        <v>150</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E2" s="13">
+        <v>43487</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="13">
+        <v>43483</v>
+      </c>
+      <c r="H2" s="12">
+        <v>19017127</v>
+      </c>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12">
+        <v>63000</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E3" s="13">
+        <v>43859</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="13">
+        <v>43857</v>
+      </c>
+      <c r="H3" s="12">
+        <v>20010265</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="12">
+        <v>15000</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="E4" s="13">
+        <v>43874</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="13">
+        <v>43872</v>
+      </c>
+      <c r="H4" s="12">
+        <v>20020790</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12">
+        <v>30000</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E5" s="13">
+        <v>43852</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="13">
+        <v>43850</v>
+      </c>
+      <c r="H5" s="12">
+        <v>20010009</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="12">
+        <v>9000</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.185</v>
+      </c>
+      <c r="E6" s="13">
+        <v>43895</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="13">
+        <v>43893</v>
+      </c>
+      <c r="H6" s="12">
+        <v>20031561</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12">
+        <v>250</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="E7" s="13">
+        <v>43672</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="13">
+        <v>43669</v>
+      </c>
+      <c r="H7" s="12">
+        <v>19073163</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12">
+        <v>6000</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="13">
+        <v>43773</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="13">
+        <v>43771</v>
+      </c>
+      <c r="H8" s="12">
+        <v>19116862</v>
+      </c>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E9" s="13">
+        <v>43668</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="13">
+        <v>43664</v>
+      </c>
+      <c r="H9" s="12">
+        <v>19072973</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12">
+        <v>9000</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="E10" s="13">
+        <v>43801</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="13">
+        <v>43797</v>
+      </c>
+      <c r="H10" s="12">
+        <v>19117939</v>
+      </c>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12">
+        <v>9000</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="E11" s="13">
+        <v>43836</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="13">
+        <v>43832</v>
+      </c>
+      <c r="H11" s="12">
+        <v>20019487</v>
+      </c>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="12">
+        <v>9000</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="E12" s="13">
+        <v>43871</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="13">
+        <v>43868</v>
+      </c>
+      <c r="H12" s="12">
+        <v>20020674</v>
+      </c>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="12">
+        <v>9000</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="E13" s="13">
+        <v>43817</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="13">
+        <v>43815</v>
+      </c>
+      <c r="H13" s="12">
+        <v>19128640</v>
+      </c>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="E14" s="13">
+        <v>43896</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="13">
+        <v>43893</v>
+      </c>
+      <c r="H14" s="12">
+        <v>20031561</v>
+      </c>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="12">
+        <v>15000</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="E15" s="13">
+        <v>43896</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="13">
+        <v>43894</v>
+      </c>
+      <c r="H15" s="12">
+        <v>20031629</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="12">
+        <v>18000</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="E16" s="13">
+        <v>43896</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="13">
+        <v>43893</v>
+      </c>
+      <c r="H16" s="12">
+        <v>20031561</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="12">
+        <v>9000</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="E17" s="13">
+        <v>43874</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="13">
+        <v>43872</v>
+      </c>
+      <c r="H17" s="12">
+        <v>20020791</v>
+      </c>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="13">
+        <v>43882</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="13">
+        <v>43880</v>
+      </c>
+      <c r="H18" s="12">
+        <v>20021095</v>
+      </c>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="12">
+        <v>6000</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="13">
+        <v>43895</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="13">
+        <v>43893</v>
+      </c>
+      <c r="H19" s="12">
+        <v>20031560</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" s="15" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="12">
+        <v>150</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="E20" s="13">
+        <v>43703</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="13">
+        <v>43700</v>
+      </c>
+      <c r="H20" s="12">
+        <v>19084193</v>
+      </c>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="21" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="12">
+        <v>250</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="13">
+        <v>43887</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="13">
+        <v>43885</v>
+      </c>
+      <c r="H21" s="12">
+        <v>20021232</v>
+      </c>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="12">
+        <v>250</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="13">
+        <v>43917</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="13">
+        <v>43915</v>
+      </c>
+      <c r="H22" s="12">
+        <v>20032708</v>
+      </c>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="21" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="12">
+        <v>3000</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="13">
+        <v>43915</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="13">
+        <v>43913</v>
+      </c>
+      <c r="H23" s="12">
+        <v>20032459</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="12">
+        <v>250</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="13">
+        <v>43917</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="13">
+        <v>43915</v>
+      </c>
+      <c r="H24" s="12">
+        <v>20032708</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="21" customHeight="1">
+      <c r="A25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="12">
+        <v>250</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="13">
+        <v>43917</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="13">
+        <v>43915</v>
+      </c>
+      <c r="H25" s="12">
+        <v>20032708</v>
+      </c>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="12">
+        <v>250</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E26" s="13">
+        <v>43908</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="13">
+        <v>43906</v>
+      </c>
+      <c r="H26" s="12">
+        <v>20032046</v>
+      </c>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="E27" s="13">
+        <v>43913</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="13">
+        <v>43910</v>
+      </c>
+      <c r="H27" s="12">
+        <v>20032422</v>
+      </c>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" ht="21" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="12">
+        <v>250</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="13">
+        <v>43916</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="13">
+        <v>43914</v>
+      </c>
+      <c r="H28" s="12">
+        <v>20032540</v>
+      </c>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" ht="21" customHeight="1">
+      <c r="A29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="12">
+        <v>250</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E29" s="13">
+        <v>43916</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="13">
+        <v>43914</v>
+      </c>
+      <c r="H29" s="12">
+        <v>20032541</v>
+      </c>
+      <c r="I29" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I29" xr:uid="{5EE9B89A-A737-4F68-880C-AFCAEEA6E5EF}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2298,13 +2276,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C620B1C1-1C8A-4F63-9FB3-D8231767D845}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C620B1C1-1C8A-4F63-9FB3-D8231767D845}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="84533548-6a3c-44ad-8013-e8e6b4295ee4"/>
+    <ds:schemaRef ds:uri="9c0d39b0-f853-46d0-be1c-b75ead6e7377"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3828B456-BC36-4F0A-9915-ECB4519C10A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3828B456-BC36-4F0A-9915-ECB4519C10A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF93862F-650E-4219-89BA-1A80D2B42FFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF93862F-650E-4219-89BA-1A80D2B42FFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>